--- a/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_P2H_Demand_tech_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_P2H_Demand_tech_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\NearZeroCarbon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9C7F9-13CE-4A7B-8F0D-D696C8F296FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE1368C-DE4D-4B39-9309-11B880DE3A75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1730" windowWidth="17310" windowHeight="7360" xr2:uid="{A6F153CC-247E-4333-A56F-D204BA099796}"/>
+    <workbookView xWindow="1250" yWindow="1140" windowWidth="17310" windowHeight="8640" xr2:uid="{A6F153CC-247E-4333-A56F-D204BA099796}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,10 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Electric boiler</t>
-  </si>
-  <si>
     <t>PJ</t>
+  </si>
+  <si>
+    <t>Electric boilers</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>

--- a/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_P2H_Demand_tech_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_P2H_Demand_tech_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\NearZeroCarbon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE1368C-DE4D-4B39-9309-11B880DE3A75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5288BE-6CAD-4CD8-8BD3-C3C1B3F701DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1250" yWindow="1140" windowWidth="17310" windowHeight="8640" xr2:uid="{A6F153CC-247E-4333-A56F-D204BA099796}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{014C6661-5E10-44D0-8D55-5308EB578840}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
+    <t>PJ</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
@@ -135,10 +138,7 @@
     <t>UK</t>
   </si>
   <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>Electric boilers</t>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -203,6 +203,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,464 +520,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E4DD6-579A-476C-8084-5353011BA607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B23D0-25BC-45BD-B2FC-667585CF44C9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>29.031999999999996</v>
+        <v>25.881</v>
       </c>
       <c r="C3" s="1">
-        <v>10.375</v>
+        <v>29.184999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>14.237</v>
+        <v>58.816000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>48.451000000000001</v>
+        <v>40.74</v>
       </c>
       <c r="C4" s="1">
-        <v>27.985999999999997</v>
+        <v>81.742999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>13.527000000000001</v>
+        <v>55.443999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>23.925000000000001</v>
+        <v>19.926000000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1.5170000000000001</v>
+        <v>4.2170000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>42.660999999999994</v>
+        <v>39.347999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>23.882999999999999</v>
+        <v>74.328000000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>12.651</v>
+        <v>51.339999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>4.7349999999999985</v>
+        <v>4.0520000000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>1.137</v>
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>47.298999999999999</v>
+        <v>41.154000000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>19.709</v>
+        <v>52.126999999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>12.469999999999999</v>
+        <v>53.378999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>149.56200000000001</v>
+        <v>147.79999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>172.80600000000001</v>
+        <v>601.904</v>
       </c>
       <c r="D9" s="1">
-        <v>94.477000000000004</v>
+        <v>402.27600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>18.990000000000002</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>4.2430000000000003</v>
+        <v>14.543999999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>9.2159999999999993</v>
+        <v>36.948</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0960000000000001</v>
+        <v>6.0069999999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>1.5779999999999998</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>1.4750000000000001</v>
+        <v>5.5350000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>46.297999999999995</v>
+        <v>39.060999999999993</v>
       </c>
       <c r="C12" s="1">
-        <v>6.6370000000000005</v>
+        <v>22.74</v>
       </c>
       <c r="D12" s="1">
-        <v>7.1269999999999998</v>
+        <v>29.965000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>176.072</v>
+        <v>157.57399999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>23.683000000000003</v>
+        <v>84.170999999999992</v>
       </c>
       <c r="D13" s="1">
-        <v>7.1229999999999993</v>
+        <v>29.714000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>58.14200000000001</v>
+        <v>55.402000000000015</v>
       </c>
       <c r="C14" s="1">
-        <v>12.261000000000001</v>
+        <v>31.180999999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>16.933</v>
+        <v>54.203000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>379.76900000000001</v>
+        <v>356.988</v>
       </c>
       <c r="C15" s="1">
-        <v>94.983000000000004</v>
+        <v>311.83800000000008</v>
       </c>
       <c r="D15" s="1">
-        <v>67.162999999999997</v>
+        <v>277.94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>12.269</v>
+        <v>10.430999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>2.7519999999999998</v>
+        <v>7.7790000000000017</v>
       </c>
       <c r="D16" s="1">
-        <v>4.1770000000000005</v>
+        <v>18.125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>22.679999999999996</v>
+        <v>20.085000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>16.148</v>
+        <v>45.664000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>8.3109999999999982</v>
+        <v>38.149000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>18.363</v>
+        <v>16.806000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>8.9260000000000002</v>
+        <v>28.420999999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>3.7640000000000002</v>
+        <v>15.120000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>45.608000000000004</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1.3079999999999998</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>0.78200000000000003</v>
+        <v>2.7159999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>206.25200000000001</v>
+        <v>191.72600000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>105.06200000000001</v>
+        <v>358.31299999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>39.210999999999999</v>
+        <v>171.27100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>5.8020000000000005</v>
+        <v>5.3010000000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1.33</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0699999999999998</v>
+        <v>4.3109999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>3.2179999999999995</v>
+        <v>3.3709999999999991</v>
       </c>
       <c r="C22" s="1">
-        <v>2.4159999999999999</v>
+        <v>7.8039999999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>1.29</v>
+        <v>5.2220000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>4.6100000000000003</v>
+        <v>4.1149999999999993</v>
       </c>
       <c r="C23" s="1">
-        <v>2.2170000000000001</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>1.5149999999999997</v>
+        <v>5.8919999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>1.155</v>
+        <v>1.0779999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>84.384</v>
+        <v>80.632000000000019</v>
       </c>
       <c r="C25" s="1">
-        <v>66.11399999999999</v>
+        <v>227.66899999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>12.823</v>
+        <v>53.265999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>97.003999999999991</v>
+        <v>94.753999999999991</v>
       </c>
       <c r="C26" s="1">
-        <v>12.639000000000001</v>
+        <v>32.673000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>0.77900000000000003</v>
+        <v>2.5009999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>92.390000000000015</v>
+        <v>88.579000000000008</v>
       </c>
       <c r="C27" s="1">
-        <v>28.231000000000002</v>
+        <v>85.207000000000008</v>
       </c>
       <c r="D27" s="1">
-        <v>29.318000000000001</v>
+        <v>120.49699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>25.291999999999994</v>
+        <v>23.205000000000002</v>
       </c>
       <c r="C28" s="1">
-        <v>1.7689999999999999</v>
+        <v>6.202</v>
       </c>
       <c r="D28" s="1">
-        <v>1E-3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>45.129000000000012</v>
+        <v>39.132000000000005</v>
       </c>
       <c r="C29" s="1">
-        <v>6.9669999999999996</v>
+        <v>16.978999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>10.297000000000001</v>
+        <v>45.207999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>133.14099999999999</v>
+        <v>127.12800000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>4.048</v>
+        <v>10.817</v>
       </c>
       <c r="D30" s="1">
-        <v>10.48</v>
+        <v>34.824999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>9.0400000000000009</v>
+        <v>7.8020000000000014</v>
       </c>
       <c r="C31" s="1">
-        <v>1.9709999999999999</v>
+        <v>5.7160000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>1.802</v>
+        <v>7.3559999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>16.913</v>
+        <v>14.420000000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>9.384999999999998</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>3.5920000000000001</v>
+        <v>15.145000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>444.83799999999997</v>
+        <v>401.32</v>
       </c>
       <c r="C33" s="1">
-        <v>113.824</v>
+        <v>364.98400000000004</v>
       </c>
       <c r="D33" s="1">
-        <v>51.378</v>
+        <v>206.91200000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>